--- a/va_facility_data_2025-02-20/C.W. Bill Young Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''C.W.%20Bill%20Young%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/C.W. Bill Young Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''C.W.%20Bill%20Young%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rb4a5c4e5507c4674b5ca5316b031cfb1"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R1c8a45c5616242b2b8cf05f2f629b750"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1b8678b2e9834f66b51b1f77a59fdb3c"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R39c46ddd4428411aa9cc7613e3598a29"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rdde2cd3ad4084b2f99a0d9ee9eda73ab"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rbc8381aab4b34497842bcf3ae39c0c93"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R5a738fee66d043faa4424432c0fe05d4"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rf7f47350104943f392a75c7164ce62fb"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb8a76ba5333f4d17a31711e064976b9a"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R23a1851d7f3d4349ae2b6d373199f99f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0d47ba30ad1a43cf9b80f4f9d871e0b3"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R99746c183a0c4a1f88be5d56319330bd"/>
   </x:sheets>
 </x:workbook>
 </file>
